--- a/data/landings/cdfw/public/fish_bulletins/fish_bulletin_landings_key.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/fish_bulletin_landings_key.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CE85DC-9CA8-FD4C-92BF-96F178623070}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806ECBB3-5825-254C-8EB0-C6C6BC84B990}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22020" yWindow="460" windowWidth="22380" windowHeight="22060" xr2:uid="{A8352594-68AE-3D4A-A616-D815EB4A4B05}"/>
+    <workbookView xWindow="3220" yWindow="460" windowWidth="22380" windowHeight="15540" xr2:uid="{A8352594-68AE-3D4A-A616-D815EB4A4B05}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -452,7 +452,7 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/landings/cdfw/public/fish_bulletins/fish_bulletin_landings_key.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/fish_bulletin_landings_key.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806ECBB3-5825-254C-8EB0-C6C6BC84B990}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23E8518-475D-D844-B95E-5F592DC924CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3220" yWindow="460" windowWidth="22380" windowHeight="15540" xr2:uid="{A8352594-68AE-3D4A-A616-D815EB4A4B05}"/>
+    <workbookView xWindow="16140" yWindow="500" windowWidth="24800" windowHeight="22640" xr2:uid="{A8352594-68AE-3D4A-A616-D815EB4A4B05}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -131,10 +131,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,7 +452,7 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -480,403 +480,403 @@
       <c r="B2" s="5">
         <v>15</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>1928</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="5">
         <v>20</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>1929</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>30</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5">
         <v>44</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>1935</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <v>49</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="5">
         <v>57</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>1940</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <v>58</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="5">
         <v>59</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="5">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="5">
         <v>63</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="5">
         <v>67</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="5">
         <v>74</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="5">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="5">
         <v>80</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="5">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>1950</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="5">
         <v>86</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="5">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>1951</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="5">
         <v>89</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="5">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>1952</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="5">
         <v>95</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="5">
         <v>102</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="5">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="5">
         <v>105</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="5">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="5">
         <v>108</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="5">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+      <c r="A20" s="4">
         <v>1959</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="5">
         <v>111</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="5">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+      <c r="A21" s="4">
         <v>1960</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="5">
         <v>117</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+      <c r="A22" s="4">
         <v>1961</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="5">
         <v>121</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="5">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+      <c r="A23" s="4">
         <v>1962</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="5">
         <v>125</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="5">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+      <c r="A24" s="4">
         <v>1963</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="5">
         <v>129</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="5">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+      <c r="A25" s="4">
         <v>1964</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="5">
         <v>132</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="5">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="5">
         <v>135</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="5">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+      <c r="A27" s="4">
         <v>1966</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="5">
         <v>138</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="5">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+      <c r="A28" s="4">
         <v>1967</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="5">
         <v>144</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="5">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="5">
         <v>149</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="5">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
+      <c r="A30" s="4">
         <v>1969</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="5">
         <v>153</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="5">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
+      <c r="A31" s="4">
         <v>1970</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="5">
         <v>154</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="5">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
+      <c r="A32" s="4">
         <v>1971</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="5">
         <v>159</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="5">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
+      <c r="A33" s="4">
         <v>1972</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="5">
         <v>161</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="5">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
+      <c r="A34" s="4">
         <v>1973</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="5">
         <v>163</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="5">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
+      <c r="A35" s="4">
         <v>1974</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="5">
         <v>166</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="5">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
+      <c r="A36" s="4">
         <v>1975</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="5">
         <v>168</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="5">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
+      <c r="A37" s="4">
         <v>1976</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="5">
         <v>170</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="5">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="5">
         <v>173</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="5">
         <v>37</v>
       </c>
     </row>

--- a/data/landings/cdfw/public/fish_bulletins/fish_bulletin_landings_key.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/fish_bulletin_landings_key.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23E8518-475D-D844-B95E-5F592DC924CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5A84A6-6B45-3C46-8434-D1493784E486}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16140" yWindow="500" windowWidth="24800" windowHeight="22640" xr2:uid="{A8352594-68AE-3D4A-A616-D815EB4A4B05}"/>
   </bookViews>
@@ -122,19 +122,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,443 +450,443 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
+      <c r="A1" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="B5" s="2">
+        <v>44</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>49</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>57</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B8" s="2">
+        <v>58</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>59</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>63</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>67</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>74</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>80</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>86</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>89</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="C2" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>1928</v>
-      </c>
-      <c r="B3" s="5">
+      <c r="B16" s="2">
+        <v>95</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>102</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>105</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>108</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>111</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="C3" s="5">
+      <c r="B21" s="2">
+        <v>117</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>121</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>125</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>129</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>132</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>135</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
+        <v>138</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>144</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2">
+        <v>149</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2">
+        <v>153</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
+        <v>154</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2">
+        <v>159</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2">
+        <v>161</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2">
+        <v>163</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2">
+        <v>166</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2">
+        <v>168</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2">
+        <v>170</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2">
+        <v>173</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>1929</v>
-      </c>
-      <c r="B4" s="5">
-        <v>30</v>
-      </c>
-      <c r="C4" s="5">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3">
+        <v>181</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5">
-        <v>44</v>
-      </c>
-      <c r="C5" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>1935</v>
-      </c>
-      <c r="B6" s="5">
-        <v>49</v>
-      </c>
-      <c r="C6" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="5">
-        <v>57</v>
-      </c>
-      <c r="C7" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>1940</v>
-      </c>
-      <c r="B8" s="5">
-        <v>58</v>
-      </c>
-      <c r="C8" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="5">
-        <v>59</v>
-      </c>
-      <c r="C9" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="5">
-        <v>63</v>
-      </c>
-      <c r="C10" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="5">
-        <v>67</v>
-      </c>
-      <c r="C11" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="5">
-        <v>74</v>
-      </c>
-      <c r="C12" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="5">
-        <v>80</v>
-      </c>
-      <c r="C13" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>1950</v>
-      </c>
-      <c r="B14" s="5">
-        <v>86</v>
-      </c>
-      <c r="C14" s="5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>1951</v>
-      </c>
-      <c r="B15" s="5">
-        <v>89</v>
-      </c>
-      <c r="C15" s="5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>1952</v>
-      </c>
-      <c r="B16" s="5">
-        <v>95</v>
-      </c>
-      <c r="C16" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="5">
-        <v>102</v>
-      </c>
-      <c r="C17" s="5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="5">
-        <v>105</v>
-      </c>
-      <c r="C18" s="5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="5">
-        <v>108</v>
-      </c>
-      <c r="C19" s="5">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
-        <v>1959</v>
-      </c>
-      <c r="B20" s="5">
-        <v>111</v>
-      </c>
-      <c r="C20" s="5">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
-        <v>1960</v>
-      </c>
-      <c r="B21" s="5">
-        <v>117</v>
-      </c>
-      <c r="C21" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
-        <v>1961</v>
-      </c>
-      <c r="B22" s="5">
-        <v>121</v>
-      </c>
-      <c r="C22" s="5">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
-        <v>1962</v>
-      </c>
-      <c r="B23" s="5">
-        <v>125</v>
-      </c>
-      <c r="C23" s="5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
-        <v>1963</v>
-      </c>
-      <c r="B24" s="5">
-        <v>129</v>
-      </c>
-      <c r="C24" s="5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
-        <v>1964</v>
-      </c>
-      <c r="B25" s="5">
-        <v>132</v>
-      </c>
-      <c r="C25" s="5">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="5">
-        <v>135</v>
-      </c>
-      <c r="C26" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
-        <v>1966</v>
-      </c>
-      <c r="B27" s="5">
-        <v>138</v>
-      </c>
-      <c r="C27" s="5">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
-        <v>1967</v>
-      </c>
-      <c r="B28" s="5">
-        <v>144</v>
-      </c>
-      <c r="C28" s="5">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="5">
-        <v>149</v>
-      </c>
-      <c r="C29" s="5">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
-        <v>1969</v>
-      </c>
-      <c r="B30" s="5">
-        <v>153</v>
-      </c>
-      <c r="C30" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
-        <v>1970</v>
-      </c>
-      <c r="B31" s="5">
-        <v>154</v>
-      </c>
-      <c r="C31" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
-        <v>1971</v>
-      </c>
-      <c r="B32" s="5">
-        <v>159</v>
-      </c>
-      <c r="C32" s="5">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
-        <v>1972</v>
-      </c>
-      <c r="B33" s="5">
-        <v>161</v>
-      </c>
-      <c r="C33" s="5">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
-        <v>1973</v>
-      </c>
-      <c r="B34" s="5">
-        <v>163</v>
-      </c>
-      <c r="C34" s="5">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
-        <v>1974</v>
-      </c>
-      <c r="B35" s="5">
-        <v>166</v>
-      </c>
-      <c r="C35" s="5">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
-        <v>1975</v>
-      </c>
-      <c r="B36" s="5">
-        <v>168</v>
-      </c>
-      <c r="C36" s="5">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
-        <v>1976</v>
-      </c>
-      <c r="B37" s="5">
-        <v>170</v>
-      </c>
-      <c r="C37" s="5">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="5">
-        <v>173</v>
-      </c>
-      <c r="C38" s="5">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39">
-        <v>181</v>
-      </c>
-      <c r="C39">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/data/landings/cdfw/public/fish_bulletins/fish_bulletin_landings_key.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/fish_bulletin_landings_key.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5A84A6-6B45-3C46-8434-D1493784E486}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2515F6AD-1E78-A942-AC06-3CA6DF8096C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16140" yWindow="500" windowWidth="24800" windowHeight="22640" xr2:uid="{A8352594-68AE-3D4A-A616-D815EB4A4B05}"/>
+    <workbookView xWindow="17280" yWindow="720" windowWidth="24800" windowHeight="22640" xr2:uid="{A8352594-68AE-3D4A-A616-D815EB4A4B05}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -450,7 +450,7 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/landings/cdfw/public/fish_bulletins/fish_bulletin_landings_key.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/fish_bulletin_landings_key.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0064AEB-6DEF-7143-81DC-1F2690DF64AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D63FA6-CF4F-7A4C-9A89-1CFB03FC7E37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17280" yWindow="720" windowWidth="24800" windowHeight="22640" xr2:uid="{A8352594-68AE-3D4A-A616-D815EB4A4B05}"/>
+    <workbookView xWindow="22860" yWindow="2360" windowWidth="24800" windowHeight="22640" xr2:uid="{A8352594-68AE-3D4A-A616-D815EB4A4B05}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -476,7 +476,7 @@
   <dimension ref="A2:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="C20" sqref="B20:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/landings/cdfw/public/fish_bulletins/fish_bulletin_landings_key.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/fish_bulletin_landings_key.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D63FA6-CF4F-7A4C-9A89-1CFB03FC7E37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C1D746-A8D6-7243-8BFB-D239FDB78906}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22860" yWindow="2360" windowWidth="24800" windowHeight="22640" xr2:uid="{A8352594-68AE-3D4A-A616-D815EB4A4B05}"/>
+    <workbookView xWindow="17760" yWindow="4640" windowWidth="24800" windowHeight="22640" xr2:uid="{A8352594-68AE-3D4A-A616-D815EB4A4B05}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -476,7 +476,7 @@
   <dimension ref="A2:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="B20:C20"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/landings/cdfw/public/fish_bulletins/fish_bulletin_landings_key.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/fish_bulletin_landings_key.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C1D746-A8D6-7243-8BFB-D239FDB78906}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCD8716-A52C-4840-82F2-E575E55DB7BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17760" yWindow="4640" windowWidth="24800" windowHeight="22640" xr2:uid="{A8352594-68AE-3D4A-A616-D815EB4A4B05}"/>
+    <workbookView xWindow="23040" yWindow="4320" windowWidth="24800" windowHeight="22640" xr2:uid="{A8352594-68AE-3D4A-A616-D815EB4A4B05}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -476,7 +476,7 @@
   <dimension ref="A2:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/landings/cdfw/public/fish_bulletins/fish_bulletin_landings_key.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/fish_bulletin_landings_key.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCD8716-A52C-4840-82F2-E575E55DB7BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D7513C-0BF5-7B45-AFEF-3D2620A9B570}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23040" yWindow="4320" windowWidth="24800" windowHeight="22640" xr2:uid="{A8352594-68AE-3D4A-A616-D815EB4A4B05}"/>
+    <workbookView xWindow="14820" yWindow="2180" windowWidth="24800" windowHeight="22640" xr2:uid="{A8352594-68AE-3D4A-A616-D815EB4A4B05}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -476,7 +476,7 @@
   <dimension ref="A2:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/landings/cdfw/public/fish_bulletins/fish_bulletin_landings_key.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/fish_bulletin_landings_key.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D7513C-0BF5-7B45-AFEF-3D2620A9B570}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C237F794-F342-8246-A7AB-33242098863E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14820" yWindow="2180" windowWidth="24800" windowHeight="22640" xr2:uid="{A8352594-68AE-3D4A-A616-D815EB4A4B05}"/>
   </bookViews>
@@ -476,7 +476,7 @@
   <dimension ref="A2:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/landings/cdfw/public/fish_bulletins/fish_bulletin_landings_key.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/fish_bulletin_landings_key.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C237F794-F342-8246-A7AB-33242098863E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5460172-B141-9A43-A5AF-74CEE0F16CE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14820" yWindow="2180" windowWidth="24800" windowHeight="22640" xr2:uid="{A8352594-68AE-3D4A-A616-D815EB4A4B05}"/>
+    <workbookView xWindow="24520" yWindow="2100" windowWidth="24800" windowHeight="22640" xr2:uid="{A8352594-68AE-3D4A-A616-D815EB4A4B05}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -476,7 +476,7 @@
   <dimension ref="A2:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
